--- a/writing_sample_1_output.xlsx
+++ b/writing_sample_1_output.xlsx
@@ -1205,7 +1205,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:N28">
+  <conditionalFormatting sqref="C4:N29">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -1829,7 +1829,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:N28">
+  <conditionalFormatting sqref="C4:N29">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
